--- a/unittests/test_cases/data_test.xlsx
+++ b/unittests/test_cases/data_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\FCM_Projects\FCM_Python\FCM_BCI\PyFcmBci\unittests\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8CBC48-5ECC-40AF-83EC-2575A2EC63F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB43F05-B81C-4E3D-8C59-95FD7FE51261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="11985" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,21 +47,6 @@
     <t>To</t>
   </si>
   <si>
-    <t>VL</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>VH</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -90,6 +75,21 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>+VL</t>
+  </si>
+  <si>
+    <t>+L</t>
+  </si>
+  <si>
+    <t>+M</t>
+  </si>
+  <si>
+    <t>+H</t>
+  </si>
+  <si>
+    <t>+VH</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,53 +457,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -511,26 +511,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -538,34 +538,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -573,26 +573,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -600,34 +600,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7CEDA-E314-4AA2-A96A-AD58A86EEAB5}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,53 +655,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -709,26 +709,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -736,34 +736,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -771,26 +771,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -798,34 +798,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +838,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,53 +851,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -905,26 +905,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -932,34 +932,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -967,26 +967,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -994,34 +994,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1047,53 +1047,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1101,26 +1101,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1128,34 +1128,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1163,26 +1163,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1190,34 +1190,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,53 +1243,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1297,26 +1297,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1324,34 +1324,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1359,58 +1359,58 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,53 +1436,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1490,26 +1490,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1517,90 +1517,90 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/unittests/test_cases/data_test.xlsx
+++ b/unittests/test_cases/data_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\FCM_Projects\FCM_Python\FCM_BCI\PyFcmBci\unittests\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB43F05-B81C-4E3D-8C59-95FD7FE51261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B861A98C-D443-4858-A0FA-99900F3C11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="11985" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expert_1" sheetId="1" r:id="rId1"/>
@@ -444,12 +444,12 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -645,9 +645,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -841,9 +841,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -911,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -919,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1037,9 +1037,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1233,9 +1233,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1426,9 +1426,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>

--- a/unittests/test_cases/data_test.xlsx
+++ b/unittests/test_cases/data_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\FCM_Projects\FCM_Python\FCM_BCI\PyFcmBci\unittests\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B861A98C-D443-4858-A0FA-99900F3C11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D8E75-105A-48E7-B12C-5087DBDA6F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expert_1" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7CEDA-E314-4AA2-A96A-AD58A86EEAB5}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DD51DC-616B-4661-866B-0AB1346EA170}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0071A83-D094-4C20-8526-9C949210E950}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="E1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAD91F-F952-4FA9-8130-B28A94854093}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B74FC8E-B083-4755-A9F4-CB1BFE39FCAE}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1484,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
